--- a/data/countries_full_data.xlsx
+++ b/data/countries_full_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO217"/>
+  <dimension ref="A1:CN217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -881,20 +881,15 @@
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 78</t>
+          <t>Electricity production from renewable sources, excluding hydroelectric (% of total)</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>Electricity production from renewable sources, excluding hydroelectric (% of total)</t>
+          <t>People using safely managed sanitation services (% of population)</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>People using safely managed sanitation services (% of population)</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>Foreign direct investment, net inflows (% of GDP)</t>
         </is>
@@ -1145,7 +1140,6 @@
       <c r="CL2" t="inlineStr"/>
       <c r="CM2" t="inlineStr"/>
       <c r="CN2" t="inlineStr"/>
-      <c r="CO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1392,7 +1386,6 @@
       <c r="CL3" t="inlineStr"/>
       <c r="CM3" t="inlineStr"/>
       <c r="CN3" t="inlineStr"/>
-      <c r="CO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1631,7 +1624,6 @@
       <c r="CL4" t="inlineStr"/>
       <c r="CM4" t="inlineStr"/>
       <c r="CN4" t="inlineStr"/>
-      <c r="CO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1878,7 +1870,6 @@
       <c r="CL5" t="inlineStr"/>
       <c r="CM5" t="inlineStr"/>
       <c r="CN5" t="inlineStr"/>
-      <c r="CO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2123,7 +2114,6 @@
       <c r="CL6" t="inlineStr"/>
       <c r="CM6" t="inlineStr"/>
       <c r="CN6" t="inlineStr"/>
-      <c r="CO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2370,7 +2360,6 @@
       <c r="CL7" t="inlineStr"/>
       <c r="CM7" t="inlineStr"/>
       <c r="CN7" t="inlineStr"/>
-      <c r="CO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2613,7 +2602,6 @@
       <c r="CL8" t="inlineStr"/>
       <c r="CM8" t="inlineStr"/>
       <c r="CN8" t="inlineStr"/>
-      <c r="CO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2858,7 +2846,6 @@
       <c r="CL9" t="inlineStr"/>
       <c r="CM9" t="inlineStr"/>
       <c r="CN9" t="inlineStr"/>
-      <c r="CO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3105,7 +3092,6 @@
       <c r="CL10" t="inlineStr"/>
       <c r="CM10" t="inlineStr"/>
       <c r="CN10" t="inlineStr"/>
-      <c r="CO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3350,7 +3336,6 @@
       <c r="CL11" t="inlineStr"/>
       <c r="CM11" t="inlineStr"/>
       <c r="CN11" t="inlineStr"/>
-      <c r="CO11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3523,15 +3508,12 @@
         <v>0.3</v>
       </c>
       <c r="CL12" t="n">
-        <v>6.161</v>
+        <v>24.6</v>
       </c>
       <c r="CM12" t="n">
-        <v>24.6</v>
+        <v>89</v>
       </c>
       <c r="CN12" t="n">
-        <v>89</v>
-      </c>
-      <c r="CO12" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -3794,7 +3776,6 @@
       <c r="CL13" t="inlineStr"/>
       <c r="CM13" t="inlineStr"/>
       <c r="CN13" t="inlineStr"/>
-      <c r="CO13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4025,7 +4006,6 @@
       <c r="CL14" t="inlineStr"/>
       <c r="CM14" t="inlineStr"/>
       <c r="CN14" t="inlineStr"/>
-      <c r="CO14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4274,7 +4254,6 @@
       <c r="CL15" t="inlineStr"/>
       <c r="CM15" t="inlineStr"/>
       <c r="CN15" t="inlineStr"/>
-      <c r="CO15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4521,7 +4500,6 @@
       <c r="CL16" t="inlineStr"/>
       <c r="CM16" t="inlineStr"/>
       <c r="CN16" t="inlineStr"/>
-      <c r="CO16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4770,7 +4748,6 @@
       <c r="CL17" t="inlineStr"/>
       <c r="CM17" t="inlineStr"/>
       <c r="CN17" t="inlineStr"/>
-      <c r="CO17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5023,7 +5000,6 @@
       <c r="CL18" t="inlineStr"/>
       <c r="CM18" t="inlineStr"/>
       <c r="CN18" t="inlineStr"/>
-      <c r="CO18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5268,7 +5244,6 @@
       <c r="CL19" t="inlineStr"/>
       <c r="CM19" t="inlineStr"/>
       <c r="CN19" t="inlineStr"/>
-      <c r="CO19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5521,7 +5496,6 @@
       <c r="CL20" t="inlineStr"/>
       <c r="CM20" t="inlineStr"/>
       <c r="CN20" t="inlineStr"/>
-      <c r="CO20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5768,7 +5742,6 @@
       <c r="CL21" t="inlineStr"/>
       <c r="CM21" t="inlineStr"/>
       <c r="CN21" t="inlineStr"/>
-      <c r="CO21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6017,7 +5990,6 @@
       <c r="CL22" t="inlineStr"/>
       <c r="CM22" t="inlineStr"/>
       <c r="CN22" t="inlineStr"/>
-      <c r="CO22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6262,7 +6234,6 @@
       <c r="CL23" t="inlineStr"/>
       <c r="CM23" t="inlineStr"/>
       <c r="CN23" t="inlineStr"/>
-      <c r="CO23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6511,7 +6482,6 @@
       <c r="CL24" t="inlineStr"/>
       <c r="CM24" t="inlineStr"/>
       <c r="CN24" t="inlineStr"/>
-      <c r="CO24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6760,7 +6730,6 @@
       <c r="CL25" t="inlineStr"/>
       <c r="CM25" t="inlineStr"/>
       <c r="CN25" t="inlineStr"/>
-      <c r="CO25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7029,7 +6998,6 @@
       <c r="CL26" t="inlineStr"/>
       <c r="CM26" t="inlineStr"/>
       <c r="CN26" t="inlineStr"/>
-      <c r="CO26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7292,7 +7260,6 @@
       <c r="CL27" t="inlineStr"/>
       <c r="CM27" t="inlineStr"/>
       <c r="CN27" t="inlineStr"/>
-      <c r="CO27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7543,7 +7510,6 @@
       <c r="CL28" t="inlineStr"/>
       <c r="CM28" t="inlineStr"/>
       <c r="CN28" t="inlineStr"/>
-      <c r="CO28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7714,15 +7680,12 @@
         <v>0</v>
       </c>
       <c r="CL29" t="n">
-        <v>14.267</v>
+        <v>0</v>
       </c>
       <c r="CM29" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="CN29" t="n">
-        <v>80</v>
-      </c>
-      <c r="CO29" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -7895,7 +7858,6 @@
       <c r="CL30" t="inlineStr"/>
       <c r="CM30" t="inlineStr"/>
       <c r="CN30" t="inlineStr"/>
-      <c r="CO30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8126,7 +8088,6 @@
       <c r="CL31" t="inlineStr"/>
       <c r="CM31" t="inlineStr"/>
       <c r="CN31" t="inlineStr"/>
-      <c r="CO31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8391,7 +8352,6 @@
       <c r="CL32" t="inlineStr"/>
       <c r="CM32" t="inlineStr"/>
       <c r="CN32" t="inlineStr"/>
-      <c r="CO32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8650,7 +8610,6 @@
       <c r="CL33" t="inlineStr"/>
       <c r="CM33" t="inlineStr"/>
       <c r="CN33" t="inlineStr"/>
-      <c r="CO33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8901,7 +8860,6 @@
       <c r="CL34" t="inlineStr"/>
       <c r="CM34" t="inlineStr"/>
       <c r="CN34" t="inlineStr"/>
-      <c r="CO34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9074,15 +9032,12 @@
         <v>1.1</v>
       </c>
       <c r="CL35" t="n">
-        <v>7.368</v>
+        <v>12.7</v>
       </c>
       <c r="CM35" t="n">
-        <v>12.7</v>
+        <v>98</v>
       </c>
       <c r="CN35" t="n">
-        <v>98</v>
-      </c>
-      <c r="CO35" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -9337,7 +9292,6 @@
       <c r="CL36" t="inlineStr"/>
       <c r="CM36" t="inlineStr"/>
       <c r="CN36" t="inlineStr"/>
-      <c r="CO36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9600,7 +9554,6 @@
       <c r="CL37" t="inlineStr"/>
       <c r="CM37" t="inlineStr"/>
       <c r="CN37" t="inlineStr"/>
-      <c r="CO37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9859,7 +9812,6 @@
       <c r="CL38" t="inlineStr"/>
       <c r="CM38" t="inlineStr"/>
       <c r="CN38" t="inlineStr"/>
-      <c r="CO38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10112,7 +10064,6 @@
       <c r="CL39" t="inlineStr"/>
       <c r="CM39" t="inlineStr"/>
       <c r="CN39" t="inlineStr"/>
-      <c r="CO39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10353,7 +10304,6 @@
       <c r="CL40" t="inlineStr"/>
       <c r="CM40" t="inlineStr"/>
       <c r="CN40" t="inlineStr"/>
-      <c r="CO40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10604,7 +10554,6 @@
       <c r="CL41" t="inlineStr"/>
       <c r="CM41" t="inlineStr"/>
       <c r="CN41" t="inlineStr"/>
-      <c r="CO41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10779,13 +10728,10 @@
         <v>19.1</v>
       </c>
       <c r="CL42" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM42" t="n">
         <v>25.3</v>
       </c>
-      <c r="CN42" t="inlineStr"/>
-      <c r="CO42" t="n">
+      <c r="CM42" t="inlineStr"/>
+      <c r="CN42" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -11042,7 +10988,6 @@
       <c r="CL43" t="inlineStr"/>
       <c r="CM43" t="inlineStr"/>
       <c r="CN43" t="inlineStr"/>
-      <c r="CO43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11307,7 +11252,6 @@
       <c r="CL44" t="inlineStr"/>
       <c r="CM44" t="inlineStr"/>
       <c r="CN44" t="inlineStr"/>
-      <c r="CO44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11556,7 +11500,6 @@
       <c r="CL45" t="inlineStr"/>
       <c r="CM45" t="inlineStr"/>
       <c r="CN45" t="inlineStr"/>
-      <c r="CO45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11807,7 +11750,6 @@
       <c r="CL46" t="inlineStr"/>
       <c r="CM46" t="inlineStr"/>
       <c r="CN46" t="inlineStr"/>
-      <c r="CO46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12062,7 +12004,6 @@
       <c r="CL47" t="inlineStr"/>
       <c r="CM47" t="inlineStr"/>
       <c r="CN47" t="inlineStr"/>
-      <c r="CO47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12327,7 +12268,6 @@
       <c r="CL48" t="inlineStr"/>
       <c r="CM48" t="inlineStr"/>
       <c r="CN48" t="inlineStr"/>
-      <c r="CO48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12502,13 +12442,10 @@
         <v>0.1</v>
       </c>
       <c r="CL49" t="n">
-        <v>11.298</v>
-      </c>
-      <c r="CM49" t="n">
         <v>0.2</v>
       </c>
-      <c r="CN49" t="inlineStr"/>
-      <c r="CO49" t="n">
+      <c r="CM49" t="inlineStr"/>
+      <c r="CN49" t="n">
         <v>2.1</v>
       </c>
     </row>
@@ -12755,7 +12692,6 @@
       <c r="CL50" t="inlineStr"/>
       <c r="CM50" t="inlineStr"/>
       <c r="CN50" t="inlineStr"/>
-      <c r="CO50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12998,7 +12934,6 @@
       <c r="CL51" t="inlineStr"/>
       <c r="CM51" t="inlineStr"/>
       <c r="CN51" t="inlineStr"/>
-      <c r="CO51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13247,7 +13182,6 @@
       <c r="CL52" t="inlineStr"/>
       <c r="CM52" t="inlineStr"/>
       <c r="CN52" t="inlineStr"/>
-      <c r="CO52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13514,7 +13448,6 @@
       <c r="CL53" t="inlineStr"/>
       <c r="CM53" t="inlineStr"/>
       <c r="CN53" t="inlineStr"/>
-      <c r="CO53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13775,7 +13708,6 @@
       <c r="CL54" t="inlineStr"/>
       <c r="CM54" t="inlineStr"/>
       <c r="CN54" t="inlineStr"/>
-      <c r="CO54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13948,15 +13880,12 @@
         <v>0.5</v>
       </c>
       <c r="CL55" t="n">
-        <v>3.785</v>
+        <v>30.6</v>
       </c>
       <c r="CM55" t="n">
-        <v>30.6</v>
+        <v>93</v>
       </c>
       <c r="CN55" t="n">
-        <v>93</v>
-      </c>
-      <c r="CO55" t="n">
         <v>3.4</v>
       </c>
     </row>
@@ -14211,7 +14140,6 @@
       <c r="CL56" t="inlineStr"/>
       <c r="CM56" t="inlineStr"/>
       <c r="CN56" t="inlineStr"/>
-      <c r="CO56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14468,7 +14396,6 @@
       <c r="CL57" t="inlineStr"/>
       <c r="CM57" t="inlineStr"/>
       <c r="CN57" t="inlineStr"/>
-      <c r="CO57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14643,15 +14570,12 @@
         <v>1.9</v>
       </c>
       <c r="CL58" t="n">
-        <v>3.714</v>
+        <v>5.9</v>
       </c>
       <c r="CM58" t="n">
-        <v>5.9</v>
+        <v>26</v>
       </c>
       <c r="CN58" t="n">
-        <v>26</v>
-      </c>
-      <c r="CO58" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -14912,7 +14836,6 @@
       <c r="CL59" t="inlineStr"/>
       <c r="CM59" t="inlineStr"/>
       <c r="CN59" t="inlineStr"/>
-      <c r="CO59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15171,7 +15094,6 @@
       <c r="CL60" t="inlineStr"/>
       <c r="CM60" t="inlineStr"/>
       <c r="CN60" t="inlineStr"/>
-      <c r="CO60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15432,7 +15354,6 @@
       <c r="CL61" t="inlineStr"/>
       <c r="CM61" t="inlineStr"/>
       <c r="CN61" t="inlineStr"/>
-      <c r="CO61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15665,7 +15586,6 @@
       <c r="CL62" t="inlineStr"/>
       <c r="CM62" t="inlineStr"/>
       <c r="CN62" t="inlineStr"/>
-      <c r="CO62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15918,7 +15838,6 @@
       <c r="CL63" t="inlineStr"/>
       <c r="CM63" t="inlineStr"/>
       <c r="CN63" t="inlineStr"/>
-      <c r="CO63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16169,7 +16088,6 @@
       <c r="CL64" t="inlineStr"/>
       <c r="CM64" t="inlineStr"/>
       <c r="CN64" t="inlineStr"/>
-      <c r="CO64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16428,7 +16346,6 @@
       <c r="CL65" t="inlineStr"/>
       <c r="CM65" t="inlineStr"/>
       <c r="CN65" t="inlineStr"/>
-      <c r="CO65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16651,7 +16568,6 @@
       <c r="CL66" t="inlineStr"/>
       <c r="CM66" t="inlineStr"/>
       <c r="CN66" t="inlineStr"/>
-      <c r="CO66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16908,7 +16824,6 @@
       <c r="CL67" t="inlineStr"/>
       <c r="CM67" t="inlineStr"/>
       <c r="CN67" t="inlineStr"/>
-      <c r="CO67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17171,7 +17086,6 @@
       <c r="CL68" t="inlineStr"/>
       <c r="CM68" t="inlineStr"/>
       <c r="CN68" t="inlineStr"/>
-      <c r="CO68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17430,7 +17344,6 @@
       <c r="CL69" t="inlineStr"/>
       <c r="CM69" t="inlineStr"/>
       <c r="CN69" t="inlineStr"/>
-      <c r="CO69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17691,7 +17604,6 @@
       <c r="CL70" t="inlineStr"/>
       <c r="CM70" t="inlineStr"/>
       <c r="CN70" t="inlineStr"/>
-      <c r="CO70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17944,7 +17856,6 @@
       <c r="CL71" t="inlineStr"/>
       <c r="CM71" t="inlineStr"/>
       <c r="CN71" t="inlineStr"/>
-      <c r="CO71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18203,7 +18114,6 @@
       <c r="CL72" t="inlineStr"/>
       <c r="CM72" t="inlineStr"/>
       <c r="CN72" t="inlineStr"/>
-      <c r="CO72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18460,7 +18370,6 @@
       <c r="CL73" t="inlineStr"/>
       <c r="CM73" t="inlineStr"/>
       <c r="CN73" t="inlineStr"/>
-      <c r="CO73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18723,7 +18632,6 @@
       <c r="CL74" t="inlineStr"/>
       <c r="CM74" t="inlineStr"/>
       <c r="CN74" t="inlineStr"/>
-      <c r="CO74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18982,7 +18890,6 @@
       <c r="CL75" t="inlineStr"/>
       <c r="CM75" t="inlineStr"/>
       <c r="CN75" t="inlineStr"/>
-      <c r="CO75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19153,15 +19060,12 @@
         <v>10.7</v>
       </c>
       <c r="CL76" t="n">
-        <v>4.068</v>
+        <v>0</v>
       </c>
       <c r="CM76" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CN76" t="n">
-        <v>57</v>
-      </c>
-      <c r="CO76" t="n">
         <v>7</v>
       </c>
     </row>
@@ -19424,7 +19328,6 @@
       <c r="CL77" t="inlineStr"/>
       <c r="CM77" t="inlineStr"/>
       <c r="CN77" t="inlineStr"/>
-      <c r="CO77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19687,7 +19590,6 @@
       <c r="CL78" t="inlineStr"/>
       <c r="CM78" t="inlineStr"/>
       <c r="CN78" t="inlineStr"/>
-      <c r="CO78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19944,7 +19846,6 @@
       <c r="CL79" t="inlineStr"/>
       <c r="CM79" t="inlineStr"/>
       <c r="CN79" t="inlineStr"/>
-      <c r="CO79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20213,7 +20114,6 @@
       <c r="CL80" t="inlineStr"/>
       <c r="CM80" t="inlineStr"/>
       <c r="CN80" t="inlineStr"/>
-      <c r="CO80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20472,7 +20372,6 @@
       <c r="CL81" t="inlineStr"/>
       <c r="CM81" t="inlineStr"/>
       <c r="CN81" t="inlineStr"/>
-      <c r="CO81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20737,7 +20636,6 @@
       <c r="CL82" t="inlineStr"/>
       <c r="CM82" t="inlineStr"/>
       <c r="CN82" t="inlineStr"/>
-      <c r="CO82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21002,7 +20900,6 @@
       <c r="CL83" t="inlineStr"/>
       <c r="CM83" t="inlineStr"/>
       <c r="CN83" t="inlineStr"/>
-      <c r="CO83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21255,7 +21152,6 @@
       <c r="CL84" t="inlineStr"/>
       <c r="CM84" t="inlineStr"/>
       <c r="CN84" t="inlineStr"/>
-      <c r="CO84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21516,7 +21412,6 @@
       <c r="CL85" t="inlineStr"/>
       <c r="CM85" t="inlineStr"/>
       <c r="CN85" t="inlineStr"/>
-      <c r="CO85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21723,7 +21618,6 @@
       <c r="CL86" t="inlineStr"/>
       <c r="CM86" t="inlineStr"/>
       <c r="CN86" t="inlineStr"/>
-      <c r="CO86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -21988,7 +21882,6 @@
       <c r="CL87" t="inlineStr"/>
       <c r="CM87" t="inlineStr"/>
       <c r="CN87" t="inlineStr"/>
-      <c r="CO87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22251,7 +22144,6 @@
       <c r="CL88" t="inlineStr"/>
       <c r="CM88" t="inlineStr"/>
       <c r="CN88" t="inlineStr"/>
-      <c r="CO88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22424,13 +22316,10 @@
         <v>0.3</v>
       </c>
       <c r="CL89" t="n">
-        <v>1.255</v>
-      </c>
-      <c r="CM89" t="n">
         <v>0</v>
       </c>
-      <c r="CN89" t="inlineStr"/>
-      <c r="CO89" t="n">
+      <c r="CM89" t="inlineStr"/>
+      <c r="CN89" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -22695,7 +22584,6 @@
       <c r="CL90" t="inlineStr"/>
       <c r="CM90" t="inlineStr"/>
       <c r="CN90" t="inlineStr"/>
-      <c r="CO90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22962,7 +22850,6 @@
       <c r="CL91" t="inlineStr"/>
       <c r="CM91" t="inlineStr"/>
       <c r="CN91" t="inlineStr"/>
-      <c r="CO91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23223,7 +23110,6 @@
       <c r="CL92" t="inlineStr"/>
       <c r="CM92" t="inlineStr"/>
       <c r="CN92" t="inlineStr"/>
-      <c r="CO92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23480,7 +23366,6 @@
       <c r="CL93" t="inlineStr"/>
       <c r="CM93" t="inlineStr"/>
       <c r="CN93" t="inlineStr"/>
-      <c r="CO93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23727,7 +23612,6 @@
       <c r="CL94" t="inlineStr"/>
       <c r="CM94" t="inlineStr"/>
       <c r="CN94" t="inlineStr"/>
-      <c r="CO94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23988,7 +23872,6 @@
       <c r="CL95" t="inlineStr"/>
       <c r="CM95" t="inlineStr"/>
       <c r="CN95" t="inlineStr"/>
-      <c r="CO95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24251,7 +24134,6 @@
       <c r="CL96" t="inlineStr"/>
       <c r="CM96" t="inlineStr"/>
       <c r="CN96" t="inlineStr"/>
-      <c r="CO96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24502,7 +24384,6 @@
       <c r="CL97" t="inlineStr"/>
       <c r="CM97" t="inlineStr"/>
       <c r="CN97" t="inlineStr"/>
-      <c r="CO97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24761,7 +24642,6 @@
       <c r="CL98" t="inlineStr"/>
       <c r="CM98" t="inlineStr"/>
       <c r="CN98" t="inlineStr"/>
-      <c r="CO98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25026,7 +24906,6 @@
       <c r="CL99" t="inlineStr"/>
       <c r="CM99" t="inlineStr"/>
       <c r="CN99" t="inlineStr"/>
-      <c r="CO99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25281,7 +25160,6 @@
       <c r="CL100" t="inlineStr"/>
       <c r="CM100" t="inlineStr"/>
       <c r="CN100" t="inlineStr"/>
-      <c r="CO100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25546,7 +25424,6 @@
       <c r="CL101" t="inlineStr"/>
       <c r="CM101" t="inlineStr"/>
       <c r="CN101" t="inlineStr"/>
-      <c r="CO101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25803,7 +25680,6 @@
       <c r="CL102" t="inlineStr"/>
       <c r="CM102" t="inlineStr"/>
       <c r="CN102" t="inlineStr"/>
-      <c r="CO102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26030,7 +25906,6 @@
       <c r="CL103" t="inlineStr"/>
       <c r="CM103" t="inlineStr"/>
       <c r="CN103" t="inlineStr"/>
-      <c r="CO103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26293,7 +26168,6 @@
       <c r="CL104" t="inlineStr"/>
       <c r="CM104" t="inlineStr"/>
       <c r="CN104" t="inlineStr"/>
-      <c r="CO104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26558,7 +26432,6 @@
       <c r="CL105" t="inlineStr"/>
       <c r="CM105" t="inlineStr"/>
       <c r="CN105" t="inlineStr"/>
-      <c r="CO105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26811,7 +26684,6 @@
       <c r="CL106" t="inlineStr"/>
       <c r="CM106" t="inlineStr"/>
       <c r="CN106" t="inlineStr"/>
-      <c r="CO106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26986,15 +26858,12 @@
         <v>8.1</v>
       </c>
       <c r="CL107" t="n">
-        <v>1.819</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="CM107" t="n">
-        <v>8.199999999999999</v>
+        <v>61</v>
       </c>
       <c r="CN107" t="n">
-        <v>61</v>
-      </c>
-      <c r="CO107" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -27261,7 +27130,6 @@
       <c r="CL108" t="inlineStr"/>
       <c r="CM108" t="inlineStr"/>
       <c r="CN108" t="inlineStr"/>
-      <c r="CO108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27514,7 +27382,6 @@
       <c r="CL109" t="inlineStr"/>
       <c r="CM109" t="inlineStr"/>
       <c r="CN109" t="inlineStr"/>
-      <c r="CO109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27769,7 +27636,6 @@
       <c r="CL110" t="inlineStr"/>
       <c r="CM110" t="inlineStr"/>
       <c r="CN110" t="inlineStr"/>
-      <c r="CO110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -27941,12 +27807,9 @@
       <c r="CK111" t="n">
         <v>1.6</v>
       </c>
-      <c r="CL111" t="n">
-        <v>0.855</v>
-      </c>
+      <c r="CL111" t="inlineStr"/>
       <c r="CM111" t="inlineStr"/>
-      <c r="CN111" t="inlineStr"/>
-      <c r="CO111" t="n">
+      <c r="CN111" t="n">
         <v>8</v>
       </c>
     </row>
@@ -28195,7 +28058,6 @@
       <c r="CL112" t="inlineStr"/>
       <c r="CM112" t="inlineStr"/>
       <c r="CN112" t="inlineStr"/>
-      <c r="CO112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28436,7 +28298,6 @@
       <c r="CL113" t="inlineStr"/>
       <c r="CM113" t="inlineStr"/>
       <c r="CN113" t="inlineStr"/>
-      <c r="CO113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28609,15 +28470,12 @@
         <v>3.9</v>
       </c>
       <c r="CL114" t="n">
-        <v>0.374</v>
+        <v>48.3</v>
       </c>
       <c r="CM114" t="n">
-        <v>48.3</v>
+        <v>31</v>
       </c>
       <c r="CN114" t="n">
-        <v>31</v>
-      </c>
-      <c r="CO114" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -28888,7 +28746,6 @@
       <c r="CL115" t="inlineStr"/>
       <c r="CM115" t="inlineStr"/>
       <c r="CN115" t="inlineStr"/>
-      <c r="CO115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29149,7 +29006,6 @@
       <c r="CL116" t="inlineStr"/>
       <c r="CM116" t="inlineStr"/>
       <c r="CN116" t="inlineStr"/>
-      <c r="CO116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29404,7 +29260,6 @@
       <c r="CL117" t="inlineStr"/>
       <c r="CM117" t="inlineStr"/>
       <c r="CN117" t="inlineStr"/>
-      <c r="CO117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29657,7 +29512,6 @@
       <c r="CL118" t="inlineStr"/>
       <c r="CM118" t="inlineStr"/>
       <c r="CN118" t="inlineStr"/>
-      <c r="CO118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -29912,7 +29766,6 @@
       <c r="CL119" t="inlineStr"/>
       <c r="CM119" t="inlineStr"/>
       <c r="CN119" t="inlineStr"/>
-      <c r="CO119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30179,7 +30032,6 @@
       <c r="CL120" t="inlineStr"/>
       <c r="CM120" t="inlineStr"/>
       <c r="CN120" t="inlineStr"/>
-      <c r="CO120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30430,7 +30282,6 @@
       <c r="CL121" t="inlineStr"/>
       <c r="CM121" t="inlineStr"/>
       <c r="CN121" t="inlineStr"/>
-      <c r="CO121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30683,7 +30534,6 @@
       <c r="CL122" t="inlineStr"/>
       <c r="CM122" t="inlineStr"/>
       <c r="CN122" t="inlineStr"/>
-      <c r="CO122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -30940,7 +30790,6 @@
       <c r="CL123" t="inlineStr"/>
       <c r="CM123" t="inlineStr"/>
       <c r="CN123" t="inlineStr"/>
-      <c r="CO123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31111,15 +30960,12 @@
         <v>7.1</v>
       </c>
       <c r="CL124" t="n">
-        <v>0.286</v>
+        <v>6.2</v>
       </c>
       <c r="CM124" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="CN124" t="n">
-        <v>6</v>
-      </c>
-      <c r="CO124" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -31386,7 +31232,6 @@
       <c r="CL125" t="inlineStr"/>
       <c r="CM125" t="inlineStr"/>
       <c r="CN125" t="inlineStr"/>
-      <c r="CO125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31655,7 +31500,6 @@
       <c r="CL126" t="inlineStr"/>
       <c r="CM126" t="inlineStr"/>
       <c r="CN126" t="inlineStr"/>
-      <c r="CO126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -31922,7 +31766,6 @@
       <c r="CL127" t="inlineStr"/>
       <c r="CM127" t="inlineStr"/>
       <c r="CN127" t="inlineStr"/>
-      <c r="CO127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -32189,7 +32032,6 @@
       <c r="CL128" t="inlineStr"/>
       <c r="CM128" t="inlineStr"/>
       <c r="CN128" t="inlineStr"/>
-      <c r="CO128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32456,7 +32298,6 @@
       <c r="CL129" t="inlineStr"/>
       <c r="CM129" t="inlineStr"/>
       <c r="CN129" t="inlineStr"/>
-      <c r="CO129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32711,7 +32552,6 @@
       <c r="CL130" t="inlineStr"/>
       <c r="CM130" t="inlineStr"/>
       <c r="CN130" t="inlineStr"/>
-      <c r="CO130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -32976,7 +32816,6 @@
       <c r="CL131" t="inlineStr"/>
       <c r="CM131" t="inlineStr"/>
       <c r="CN131" t="inlineStr"/>
-      <c r="CO131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -33213,7 +33052,6 @@
       <c r="CL132" t="inlineStr"/>
       <c r="CM132" t="inlineStr"/>
       <c r="CN132" t="inlineStr"/>
-      <c r="CO132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -33466,7 +33304,6 @@
       <c r="CL133" t="inlineStr"/>
       <c r="CM133" t="inlineStr"/>
       <c r="CN133" t="inlineStr"/>
-      <c r="CO133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33725,7 +33562,6 @@
       <c r="CL134" t="inlineStr"/>
       <c r="CM134" t="inlineStr"/>
       <c r="CN134" t="inlineStr"/>
-      <c r="CO134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -33974,7 +33810,6 @@
       <c r="CL135" t="inlineStr"/>
       <c r="CM135" t="inlineStr"/>
       <c r="CN135" t="inlineStr"/>
-      <c r="CO135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -34225,7 +34060,6 @@
       <c r="CL136" t="inlineStr"/>
       <c r="CM136" t="inlineStr"/>
       <c r="CN136" t="inlineStr"/>
-      <c r="CO136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -34482,7 +34316,6 @@
       <c r="CL137" t="inlineStr"/>
       <c r="CM137" t="inlineStr"/>
       <c r="CN137" t="inlineStr"/>
-      <c r="CO137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34737,7 +34570,6 @@
       <c r="CL138" t="inlineStr"/>
       <c r="CM138" t="inlineStr"/>
       <c r="CN138" t="inlineStr"/>
-      <c r="CO138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -34910,15 +34742,12 @@
         <v>5</v>
       </c>
       <c r="CL139" t="n">
-        <v>0.033</v>
+        <v>0.1</v>
       </c>
       <c r="CM139" t="n">
-        <v>0.1</v>
+        <v>13</v>
       </c>
       <c r="CN139" t="n">
-        <v>13</v>
-      </c>
-      <c r="CO139" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -35173,7 +35002,6 @@
       <c r="CL140" t="inlineStr"/>
       <c r="CM140" t="inlineStr"/>
       <c r="CN140" t="inlineStr"/>
-      <c r="CO140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -35426,7 +35254,6 @@
       <c r="CL141" t="inlineStr"/>
       <c r="CM141" t="inlineStr"/>
       <c r="CN141" t="inlineStr"/>
-      <c r="CO141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -35677,7 +35504,6 @@
       <c r="CL142" t="inlineStr"/>
       <c r="CM142" t="inlineStr"/>
       <c r="CN142" t="inlineStr"/>
-      <c r="CO142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -35920,7 +35746,6 @@
       <c r="CL143" t="inlineStr"/>
       <c r="CM143" t="inlineStr"/>
       <c r="CN143" t="inlineStr"/>
-      <c r="CO143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -36131,7 +35956,6 @@
       <c r="CL144" t="inlineStr"/>
       <c r="CM144" t="inlineStr"/>
       <c r="CN144" t="inlineStr"/>
-      <c r="CO144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -36360,7 +36184,6 @@
       <c r="CL145" t="inlineStr"/>
       <c r="CM145" t="inlineStr"/>
       <c r="CN145" t="inlineStr"/>
-      <c r="CO145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -36599,7 +36422,6 @@
       <c r="CL146" t="inlineStr"/>
       <c r="CM146" t="inlineStr"/>
       <c r="CN146" t="inlineStr"/>
-      <c r="CO146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -36802,7 +36624,6 @@
       <c r="CL147" t="inlineStr"/>
       <c r="CM147" t="inlineStr"/>
       <c r="CN147" t="inlineStr"/>
-      <c r="CO147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -36985,7 +36806,6 @@
       <c r="CL148" t="inlineStr"/>
       <c r="CM148" t="inlineStr"/>
       <c r="CN148" t="inlineStr"/>
-      <c r="CO148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -37230,7 +37050,6 @@
       <c r="CL149" t="inlineStr"/>
       <c r="CM149" t="inlineStr"/>
       <c r="CN149" t="inlineStr"/>
-      <c r="CO149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -37385,7 +37204,6 @@
       <c r="CL150" t="inlineStr"/>
       <c r="CM150" t="inlineStr"/>
       <c r="CN150" t="inlineStr"/>
-      <c r="CO150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -37620,7 +37438,6 @@
       <c r="CL151" t="inlineStr"/>
       <c r="CM151" t="inlineStr"/>
       <c r="CN151" t="inlineStr"/>
-      <c r="CO151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -37791,7 +37608,6 @@
       <c r="CL152" t="inlineStr"/>
       <c r="CM152" t="inlineStr"/>
       <c r="CN152" t="inlineStr"/>
-      <c r="CO152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -37974,7 +37790,6 @@
       <c r="CL153" t="inlineStr"/>
       <c r="CM153" t="inlineStr"/>
       <c r="CN153" t="inlineStr"/>
-      <c r="CO153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -38219,7 +38034,6 @@
       <c r="CL154" t="inlineStr"/>
       <c r="CM154" t="inlineStr"/>
       <c r="CN154" t="inlineStr"/>
-      <c r="CO154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -38385,14 +38199,11 @@
       <c r="CK155" t="n">
         <v>1.4</v>
       </c>
-      <c r="CL155" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="CM155" t="inlineStr"/>
+      <c r="CL155" t="inlineStr"/>
+      <c r="CM155" t="n">
+        <v>40</v>
+      </c>
       <c r="CN155" t="n">
-        <v>40</v>
-      </c>
-      <c r="CO155" t="n">
         <v>3.3</v>
       </c>
     </row>
@@ -38593,7 +38404,6 @@
       <c r="CL156" t="inlineStr"/>
       <c r="CM156" t="inlineStr"/>
       <c r="CN156" t="inlineStr"/>
-      <c r="CO156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -38762,7 +38572,6 @@
       <c r="CL157" t="inlineStr"/>
       <c r="CM157" t="inlineStr"/>
       <c r="CN157" t="inlineStr"/>
-      <c r="CO157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -39021,7 +38830,6 @@
       <c r="CL158" t="inlineStr"/>
       <c r="CM158" t="inlineStr"/>
       <c r="CN158" t="inlineStr"/>
-      <c r="CO158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -39191,14 +38999,11 @@
       <c r="CK159" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="CL159" t="n">
-        <v>1.117</v>
-      </c>
-      <c r="CM159" t="inlineStr"/>
+      <c r="CL159" t="inlineStr"/>
+      <c r="CM159" t="n">
+        <v>49</v>
+      </c>
       <c r="CN159" t="n">
-        <v>49</v>
-      </c>
-      <c r="CO159" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -39377,7 +39182,6 @@
       <c r="CL160" t="inlineStr"/>
       <c r="CM160" t="inlineStr"/>
       <c r="CN160" t="inlineStr"/>
-      <c r="CO160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -39568,7 +39372,6 @@
       <c r="CL161" t="inlineStr"/>
       <c r="CM161" t="inlineStr"/>
       <c r="CN161" t="inlineStr"/>
-      <c r="CO161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -39739,7 +39542,6 @@
       <c r="CL162" t="inlineStr"/>
       <c r="CM162" t="inlineStr"/>
       <c r="CN162" t="inlineStr"/>
-      <c r="CO162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -39986,7 +39788,6 @@
       <c r="CL163" t="inlineStr"/>
       <c r="CM163" t="inlineStr"/>
       <c r="CN163" t="inlineStr"/>
-      <c r="CO163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -40223,7 +40024,6 @@
       <c r="CL164" t="inlineStr"/>
       <c r="CM164" t="inlineStr"/>
       <c r="CN164" t="inlineStr"/>
-      <c r="CO164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -40476,7 +40276,6 @@
       <c r="CL165" t="inlineStr"/>
       <c r="CM165" t="inlineStr"/>
       <c r="CN165" t="inlineStr"/>
-      <c r="CO165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -40639,7 +40438,6 @@
       <c r="CL166" t="inlineStr"/>
       <c r="CM166" t="inlineStr"/>
       <c r="CN166" t="inlineStr"/>
-      <c r="CO166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -40810,7 +40608,6 @@
       <c r="CL167" t="inlineStr"/>
       <c r="CM167" t="inlineStr"/>
       <c r="CN167" t="inlineStr"/>
-      <c r="CO167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -41047,7 +40844,6 @@
       <c r="CL168" t="inlineStr"/>
       <c r="CM168" t="inlineStr"/>
       <c r="CN168" t="inlineStr"/>
-      <c r="CO168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -41215,14 +41011,11 @@
       <c r="CK169" t="n">
         <v>1.5</v>
       </c>
-      <c r="CL169" t="n">
-        <v>0.645</v>
-      </c>
-      <c r="CM169" t="inlineStr"/>
+      <c r="CL169" t="inlineStr"/>
+      <c r="CM169" t="n">
+        <v>34</v>
+      </c>
       <c r="CN169" t="n">
-        <v>34</v>
-      </c>
-      <c r="CO169" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -41459,7 +41252,6 @@
       <c r="CL170" t="inlineStr"/>
       <c r="CM170" t="inlineStr"/>
       <c r="CN170" t="inlineStr"/>
-      <c r="CO170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -41648,7 +41440,6 @@
       <c r="CL171" t="inlineStr"/>
       <c r="CM171" t="inlineStr"/>
       <c r="CN171" t="inlineStr"/>
-      <c r="CO171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -41833,7 +41624,6 @@
       <c r="CL172" t="inlineStr"/>
       <c r="CM172" t="inlineStr"/>
       <c r="CN172" t="inlineStr"/>
-      <c r="CO172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -41993,12 +41783,9 @@
       <c r="CK173" t="n">
         <v>13.3</v>
       </c>
-      <c r="CL173" t="n">
-        <v>2.534</v>
-      </c>
+      <c r="CL173" t="inlineStr"/>
       <c r="CM173" t="inlineStr"/>
-      <c r="CN173" t="inlineStr"/>
-      <c r="CO173" t="n">
+      <c r="CN173" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -42152,8 +41939,7 @@
       </c>
       <c r="CL174" t="inlineStr"/>
       <c r="CM174" t="inlineStr"/>
-      <c r="CN174" t="inlineStr"/>
-      <c r="CO174" t="n">
+      <c r="CN174" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -42340,7 +42126,6 @@
       <c r="CL175" t="inlineStr"/>
       <c r="CM175" t="inlineStr"/>
       <c r="CN175" t="inlineStr"/>
-      <c r="CO175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -42535,7 +42320,6 @@
       <c r="CL176" t="inlineStr"/>
       <c r="CM176" t="inlineStr"/>
       <c r="CN176" t="inlineStr"/>
-      <c r="CO176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -42697,12 +42481,9 @@
       <c r="CK177" t="n">
         <v>5.2</v>
       </c>
-      <c r="CL177" t="n">
-        <v>2.261</v>
-      </c>
+      <c r="CL177" t="inlineStr"/>
       <c r="CM177" t="inlineStr"/>
-      <c r="CN177" t="inlineStr"/>
-      <c r="CO177" t="n">
+      <c r="CN177" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -42951,7 +42732,6 @@
       <c r="CL178" t="inlineStr"/>
       <c r="CM178" t="inlineStr"/>
       <c r="CN178" t="inlineStr"/>
-      <c r="CO178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -43113,14 +42893,11 @@
       <c r="CK179" t="n">
         <v>3.2</v>
       </c>
-      <c r="CL179" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="CM179" t="inlineStr"/>
+      <c r="CL179" t="inlineStr"/>
+      <c r="CM179" t="n">
+        <v>37</v>
+      </c>
       <c r="CN179" t="n">
-        <v>37</v>
-      </c>
-      <c r="CO179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43337,7 +43114,6 @@
       <c r="CL180" t="inlineStr"/>
       <c r="CM180" t="inlineStr"/>
       <c r="CN180" t="inlineStr"/>
-      <c r="CO180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -43562,7 +43338,6 @@
       <c r="CL181" t="inlineStr"/>
       <c r="CM181" t="inlineStr"/>
       <c r="CN181" t="inlineStr"/>
-      <c r="CO181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -43745,7 +43520,6 @@
       <c r="CL182" t="inlineStr"/>
       <c r="CM182" t="inlineStr"/>
       <c r="CN182" t="inlineStr"/>
-      <c r="CO182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -44004,7 +43778,6 @@
       <c r="CL183" t="inlineStr"/>
       <c r="CM183" t="inlineStr"/>
       <c r="CN183" t="inlineStr"/>
-      <c r="CO183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -44207,7 +43980,6 @@
       <c r="CL184" t="inlineStr"/>
       <c r="CM184" t="inlineStr"/>
       <c r="CN184" t="inlineStr"/>
-      <c r="CO184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -44378,7 +44150,6 @@
       <c r="CL185" t="inlineStr"/>
       <c r="CM185" t="inlineStr"/>
       <c r="CN185" t="inlineStr"/>
-      <c r="CO185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -44615,7 +44386,6 @@
       <c r="CL186" t="inlineStr"/>
       <c r="CM186" t="inlineStr"/>
       <c r="CN186" t="inlineStr"/>
-      <c r="CO186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -44834,7 +44604,6 @@
       <c r="CL187" t="inlineStr"/>
       <c r="CM187" t="inlineStr"/>
       <c r="CN187" t="inlineStr"/>
-      <c r="CO187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -44992,8 +44761,7 @@
       </c>
       <c r="CL188" t="inlineStr"/>
       <c r="CM188" t="inlineStr"/>
-      <c r="CN188" t="inlineStr"/>
-      <c r="CO188" t="n">
+      <c r="CN188" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -45228,7 +44996,6 @@
       <c r="CL189" t="inlineStr"/>
       <c r="CM189" t="inlineStr"/>
       <c r="CN189" t="inlineStr"/>
-      <c r="CO189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -45375,7 +45142,6 @@
       <c r="CL190" t="inlineStr"/>
       <c r="CM190" t="inlineStr"/>
       <c r="CN190" t="inlineStr"/>
-      <c r="CO190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -45628,7 +45394,6 @@
       <c r="CL191" t="inlineStr"/>
       <c r="CM191" t="inlineStr"/>
       <c r="CN191" t="inlineStr"/>
-      <c r="CO191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -45873,7 +45638,6 @@
       <c r="CL192" t="inlineStr"/>
       <c r="CM192" t="inlineStr"/>
       <c r="CN192" t="inlineStr"/>
-      <c r="CO192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -46104,7 +45868,6 @@
       <c r="CL193" t="inlineStr"/>
       <c r="CM193" t="inlineStr"/>
       <c r="CN193" t="inlineStr"/>
-      <c r="CO193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -46274,12 +46037,9 @@
       <c r="CK194" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="CL194" t="n">
-        <v>0.343</v>
-      </c>
+      <c r="CL194" t="inlineStr"/>
       <c r="CM194" t="inlineStr"/>
-      <c r="CN194" t="inlineStr"/>
-      <c r="CO194" t="n">
+      <c r="CN194" t="n">
         <v>-2.4</v>
       </c>
     </row>
@@ -46488,7 +46248,6 @@
       <c r="CL195" t="inlineStr"/>
       <c r="CM195" t="inlineStr"/>
       <c r="CN195" t="inlineStr"/>
-      <c r="CO195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -46713,7 +46472,6 @@
       <c r="CL196" t="inlineStr"/>
       <c r="CM196" t="inlineStr"/>
       <c r="CN196" t="inlineStr"/>
-      <c r="CO196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -46924,7 +46682,6 @@
       <c r="CL197" t="inlineStr"/>
       <c r="CM197" t="inlineStr"/>
       <c r="CN197" t="inlineStr"/>
-      <c r="CO197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -47101,7 +46858,6 @@
       <c r="CL198" t="inlineStr"/>
       <c r="CM198" t="inlineStr"/>
       <c r="CN198" t="inlineStr"/>
-      <c r="CO198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -47342,7 +47098,6 @@
       <c r="CL199" t="inlineStr"/>
       <c r="CM199" t="inlineStr"/>
       <c r="CN199" t="inlineStr"/>
-      <c r="CO199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -47569,7 +47324,6 @@
       <c r="CL200" t="inlineStr"/>
       <c r="CM200" t="inlineStr"/>
       <c r="CN200" t="inlineStr"/>
-      <c r="CO200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -47826,7 +47580,6 @@
       <c r="CL201" t="inlineStr"/>
       <c r="CM201" t="inlineStr"/>
       <c r="CN201" t="inlineStr"/>
-      <c r="CO201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -48055,7 +47808,6 @@
       <c r="CL202" t="inlineStr"/>
       <c r="CM202" t="inlineStr"/>
       <c r="CN202" t="inlineStr"/>
-      <c r="CO202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -48221,12 +47973,9 @@
       <c r="CK203" t="n">
         <v>8.6</v>
       </c>
-      <c r="CL203" t="n">
-        <v>2.101</v>
-      </c>
+      <c r="CL203" t="inlineStr"/>
       <c r="CM203" t="inlineStr"/>
-      <c r="CN203" t="inlineStr"/>
-      <c r="CO203" t="n">
+      <c r="CN203" t="n">
         <v>7.6</v>
       </c>
     </row>
@@ -48413,7 +48162,6 @@
       <c r="CL204" t="inlineStr"/>
       <c r="CM204" t="inlineStr"/>
       <c r="CN204" t="inlineStr"/>
-      <c r="CO204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -48638,7 +48386,6 @@
       <c r="CL205" t="inlineStr"/>
       <c r="CM205" t="inlineStr"/>
       <c r="CN205" t="inlineStr"/>
-      <c r="CO205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -48800,12 +48547,9 @@
       <c r="CK206" t="n">
         <v>0.4</v>
       </c>
-      <c r="CL206" t="n">
-        <v>6.042</v>
-      </c>
+      <c r="CL206" t="inlineStr"/>
       <c r="CM206" t="inlineStr"/>
-      <c r="CN206" t="inlineStr"/>
-      <c r="CO206" t="n">
+      <c r="CN206" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -49046,7 +48790,6 @@
       <c r="CL207" t="inlineStr"/>
       <c r="CM207" t="inlineStr"/>
       <c r="CN207" t="inlineStr"/>
-      <c r="CO207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -49287,7 +49030,6 @@
       <c r="CL208" t="inlineStr"/>
       <c r="CM208" t="inlineStr"/>
       <c r="CN208" t="inlineStr"/>
-      <c r="CO208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -49524,7 +49266,6 @@
       <c r="CL209" t="inlineStr"/>
       <c r="CM209" t="inlineStr"/>
       <c r="CN209" t="inlineStr"/>
-      <c r="CO209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -49765,7 +49506,6 @@
       <c r="CL210" t="inlineStr"/>
       <c r="CM210" t="inlineStr"/>
       <c r="CN210" t="inlineStr"/>
-      <c r="CO210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -49952,7 +49692,6 @@
       <c r="CL211" t="inlineStr"/>
       <c r="CM211" t="inlineStr"/>
       <c r="CN211" t="inlineStr"/>
-      <c r="CO211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -50117,13 +49856,10 @@
         <v>0</v>
       </c>
       <c r="CL212" t="n">
-        <v>21.706</v>
-      </c>
-      <c r="CM212" t="n">
         <v>0</v>
       </c>
-      <c r="CN212" t="inlineStr"/>
-      <c r="CO212" t="n">
+      <c r="CM212" t="inlineStr"/>
+      <c r="CN212" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -50294,7 +50030,6 @@
       <c r="CL213" t="inlineStr"/>
       <c r="CM213" t="inlineStr"/>
       <c r="CN213" t="inlineStr"/>
-      <c r="CO213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -50521,7 +50256,6 @@
       <c r="CL214" t="inlineStr"/>
       <c r="CM214" t="inlineStr"/>
       <c r="CN214" t="inlineStr"/>
-      <c r="CO214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -50738,7 +50472,6 @@
       <c r="CL215" t="inlineStr"/>
       <c r="CM215" t="inlineStr"/>
       <c r="CN215" t="inlineStr"/>
-      <c r="CO215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -50889,7 +50622,6 @@
       <c r="CL216" t="inlineStr"/>
       <c r="CM216" t="inlineStr"/>
       <c r="CN216" t="inlineStr"/>
-      <c r="CO216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -51044,7 +50776,6 @@
       <c r="CL217" t="inlineStr"/>
       <c r="CM217" t="inlineStr"/>
       <c r="CN217" t="inlineStr"/>
-      <c r="CO217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
